--- a/bits.xlsx
+++ b/bits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>d15</t>
   </si>
@@ -117,13 +117,55 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Encrypted</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>!d8</t>
+  </si>
+  <si>
+    <t>!d1</t>
+  </si>
+  <si>
+    <t>!d9</t>
+  </si>
+  <si>
+    <t>!d10</t>
+  </si>
+  <si>
+    <t>!d0</t>
+  </si>
+  <si>
+    <t>!d7</t>
+  </si>
+  <si>
+    <t>!d5</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>Encryptor</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +173,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,13 +215,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,267 +512,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/bits.xlsx
+++ b/bits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h702417680\Downloads\SeniorDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senior Design\Code\SeniorDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0D54F-8E1A-4831-81F9-F5972D09C426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>d15</t>
   </si>
@@ -119,15 +120,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Encrypted</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>OP</t>
   </si>
   <si>
@@ -159,13 +151,31 @@
   </si>
   <si>
     <t>IN</t>
+  </si>
+  <si>
+    <t>in_data</t>
+  </si>
+  <si>
+    <t>Decryptor</t>
+  </si>
+  <si>
+    <t>Data is now back in order ---&gt;</t>
+  </si>
+  <si>
+    <t>Hamming Decode</t>
+  </si>
+  <si>
+    <t>Hamming Encode</t>
+  </si>
+  <si>
+    <t>to test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +222,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,12 +237,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -230,9 +253,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -511,636 +541,893 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K7" s="5">
+        <v>26</v>
+      </c>
+      <c r="L7" s="4">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
         <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3">
-        <v>23</v>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="K10" s="5">
+        <v>23</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>22</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>22</v>
       </c>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="K11" s="5">
+        <v>22</v>
+      </c>
+      <c r="L11" s="4">
+        <v>11</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>16</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>21</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>21</v>
       </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="K12" s="6">
+        <v>21</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>23</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>20</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>20</v>
       </c>
-      <c r="I13" s="3">
+      <c r="H13" s="3">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="K13" s="5">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3">
-        <v>19</v>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G14" s="3">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="K14" s="5">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>22</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>18</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>18</v>
       </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="K15" s="5">
+        <v>18</v>
+      </c>
+      <c r="L15" s="4">
+        <v>8</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>17</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>17</v>
       </c>
-      <c r="I16" s="3">
+      <c r="H16" s="3">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="K16" s="5">
+        <v>17</v>
+      </c>
+      <c r="L16" s="4">
+        <v>7</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>11</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>16</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="K17" s="5">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4">
+        <v>6</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3">
         <v>19</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="3">
-        <v>15</v>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="3">
         <v>15</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="K18" s="5">
+        <v>15</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3">
-        <v>14</v>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="3">
         <v>14</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H19" s="3">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="K19" s="5">
+        <v>14</v>
+      </c>
+      <c r="L19" s="4">
+        <v>4</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3">
-        <v>13</v>
       </c>
       <c r="G20" s="3">
         <v>13</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="K20" s="6">
+        <v>13</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3">
-        <v>12</v>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="3">
         <v>12</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="K21" s="5">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3">
         <v>15</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11</v>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G22" s="3">
         <v>11</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="K22" s="5">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>21</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <v>10</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3">
         <v>10</v>
       </c>
-      <c r="I23" s="3">
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>13</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>9</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3">
         <v>9</v>
       </c>
-      <c r="I24" s="3">
+      <c r="H24" s="3">
+        <v>9</v>
+      </c>
+      <c r="J24" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="K24" s="6">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>9</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>8</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3">
         <v>8</v>
       </c>
-      <c r="I25" s="3">
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="J25" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="K25" s="5">
+        <v>8</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="6">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="6">
+        <v>6</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
         <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
